--- a/简单迭代法结果.xlsx
+++ b/简单迭代法结果.xlsx
@@ -34,7 +34,7 @@
     <t>3*x**3/(3*x**5 + 2*x**4 - x**3 + 5) + 20 - 1/(4*x)</t>
   </si>
   <si>
-    <t>迭代次数为：10，x的值为19.989917407141622</t>
+    <t>迭代次数为：6，x的值为19.989917407141622</t>
   </si>
   <si>
     <t>第二题</t>
@@ -43,7 +43,7 @@
     <t>(4*x**2 + 4*x - 1 + 1/(x + 5))**0.333333333333333</t>
   </si>
   <si>
-    <t>迭代次数为：87，x的值为4.795128926340377</t>
+    <t>迭代次数为：75，x的值为4.795128926340377</t>
   </si>
   <si>
     <t>-x**3/4 - x**2 + 0.25 - 1/(4*x + 20)</t>
@@ -64,13 +64,13 @@
     <t>0.5*(10 - x**3)**0.5</t>
   </si>
   <si>
-    <t>迭代次数为：133，x的值为1.365230011360733</t>
+    <t>迭代次数为：27，x的值为1.365230011360733</t>
   </si>
   <si>
     <t>3.16227766016838*(1/(x + 4))**0.5</t>
   </si>
   <si>
-    <t>迭代次数为：144，x的值为1.3652300135614255</t>
+    <t>迭代次数为：10，x的值为1.3652300135614255</t>
   </si>
   <si>
     <t>第四题</t>
@@ -85,7 +85,7 @@
     <t>5/(x**2 - 2)</t>
   </si>
   <si>
-    <t>迭代次数为：159，x的值为-2.5001972959407546</t>
+    <t>迭代次数为：3，x的值为-2.5001972959407546</t>
   </si>
   <si>
     <t>(-2 + 5/x)**0.5</t>

--- a/简单迭代法结果.xlsx
+++ b/简单迭代法结果.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="25">
-  <si>
-    <t>简单迭代法计算实现线性方程组求根</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="29">
+  <si>
+    <t>简单迭代法计算非线性方程的根</t>
   </si>
   <si>
     <t>迭代公式</t>
@@ -31,64 +31,76 @@
     <t>第一题</t>
   </si>
   <si>
+    <t>公式1</t>
+  </si>
+  <si>
     <t>3*x**3/(3*x**5 + 2*x**4 - x**3 + 5) + 20 - 1/(4*x)</t>
   </si>
   <si>
-    <t>迭代次数为：6，x的值为19.989917407141622</t>
+    <t>迭代次数为：6，x的值为19.989917407141622，误差大小为0.0</t>
   </si>
   <si>
     <t>第二题</t>
   </si>
   <si>
+    <t>公式2</t>
+  </si>
+  <si>
     <t>(4*x**2 + 4*x - 1 + 1/(x + 5))**0.333333333333333</t>
   </si>
   <si>
-    <t>迭代次数为：75，x的值为4.795128926340377</t>
+    <t>迭代次数为：75，x的值为4.795128926340377，误差大小为0.0</t>
+  </si>
+  <si>
+    <t>公式3</t>
   </si>
   <si>
     <t>-x**3/4 - x**2 + 0.25 - 1/(4*x + 20)</t>
   </si>
   <si>
+    <t>该公式发散</t>
+  </si>
+  <si>
+    <t>第三题</t>
+  </si>
+  <si>
+    <t>-x**3 - 4*x**2 + x + 10</t>
+  </si>
+  <si>
+    <t>(-4*x + 10/x)**0.5</t>
+  </si>
+  <si>
     <t>出现虚数</t>
   </si>
   <si>
-    <t>第三题</t>
-  </si>
-  <si>
-    <t>-x**3 - 4*x**2 + x + 10</t>
-  </si>
-  <si>
-    <t>(-4*x + 10/x)**0.5</t>
-  </si>
-  <si>
     <t>0.5*(10 - x**3)**0.5</t>
   </si>
   <si>
-    <t>迭代次数为：27，x的值为1.365230011360733</t>
+    <t>迭代次数为：27，x的值为1.365230011360733，误差大小为3.10460657182432e-09</t>
+  </si>
+  <si>
+    <t>公式4</t>
   </si>
   <si>
     <t>3.16227766016838*(1/(x + 4))**0.5</t>
   </si>
   <si>
-    <t>迭代次数为：10，x的值为1.3652300135614255</t>
+    <t>迭代次数为：10，x的值为1.3652300135614255，误差大小为1.6607293318315897e-10</t>
   </si>
   <si>
     <t>第四题</t>
   </si>
   <si>
-    <t>(2*x - 5)**0.333333333333333</t>
+    <t>(2*x + 5)**0.333333333333333</t>
+  </si>
+  <si>
+    <t>迭代次数为：12，x的值为2.0945514806429286，误差大小为7.627263265419515e-10</t>
   </si>
   <si>
     <t>x**3/2 - 5/2</t>
   </si>
   <si>
-    <t>5/(x**2 - 2)</t>
-  </si>
-  <si>
-    <t>迭代次数为：3，x的值为-2.5001972959407546</t>
-  </si>
-  <si>
-    <t>(-2 + 5/x)**0.5</t>
+    <t>(2 + 5/x)**0.5</t>
   </si>
 </sst>
 </file>
@@ -420,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,915 +454,865 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>19.98440424131283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>19.98991527391524</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>19.98991740631637</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>19.98991740714131</v>
+        <v>19.98440424131283</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>19.98991740714162</v>
+        <v>19.98991527391524</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>19.98991740714162</v>
+        <v>19.98991740631637</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>19.98991740714131</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>19.98991740714162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>7.600523201900081</v>
+        <v>19.98991740714162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>6.387028302881964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>5.726748748245775</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>5.35061075261935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5.130120330132667</v>
-      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>4.998556052878294</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>4.919187423752065</v>
+        <v>7.600523201900081</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>4.870981957396809</v>
+        <v>6.387028302881964</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>4.841581680747153</v>
+        <v>5.726748748245775</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>4.823604637780378</v>
+        <v>5.35061075261935</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>4.812595118838671</v>
+        <v>5.130120330132667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>4.805846138217521</v>
+        <v>4.998556052878294</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>4.801706467191171</v>
+        <v>4.919187423752065</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
         <v>8</v>
       </c>
-      <c r="B26">
-        <v>14</v>
-      </c>
       <c r="C26">
-        <v>4.799166361420752</v>
+        <v>4.870981957396809</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>4.797607401355987</v>
+        <v>4.841581680747153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>4.796650476418987</v>
+        <v>4.823604637780378</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>4.796063044683475</v>
+        <v>4.812595118838671</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>4.795702416685348</v>
+        <v>4.805846138217521</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>4.79548101786986</v>
+        <v>4.801706467191171</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>4.795345092780388</v>
+        <v>4.799166361420752</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>4.795261642236784</v>
+        <v>4.797607401355987</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>4.795210407806646</v>
+        <v>4.796650476418987</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>4.795178952305175</v>
+        <v>4.796063044683475</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>4.795159640070881</v>
+        <v>4.795702416685348</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>4.795147783225131</v>
+        <v>4.79548101786986</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>4.795140503645976</v>
+        <v>4.795345092780388</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>4.7951360343033</v>
+        <v>4.795261642236784</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C40">
-        <v>4.795133290321622</v>
+        <v>4.795210407806646</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>4.795131605636015</v>
+        <v>4.795178952305175</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>4.795130571312048</v>
+        <v>4.795159640070881</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>4.79512993628189</v>
+        <v>4.795147783225131</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>4.795129546400831</v>
+        <v>4.795140503645976</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>4.795129307030711</v>
+        <v>4.7951360343033</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C46">
-        <v>4.795129160067799</v>
+        <v>4.795133290321622</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>4.79512906983892</v>
+        <v>4.795131605636015</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C48">
-        <v>4.795129014442285</v>
+        <v>4.795130571312048</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>4.795128980431143</v>
+        <v>4.79512993628189</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>4.795128959549771</v>
+        <v>4.795129546400831</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C51">
-        <v>4.795128946729511</v>
+        <v>4.795129307030711</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>4.795128938858424</v>
+        <v>4.795129160067799</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>4.795128934025917</v>
+        <v>4.79512906983892</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C54">
-        <v>4.795128931058967</v>
+        <v>4.795129014442285</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>4.795128929237388</v>
+        <v>4.795128980431143</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>4.795128928119016</v>
+        <v>4.795128959549771</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C57">
-        <v>4.795128927432384</v>
+        <v>4.795128946729511</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>4.795128927010822</v>
+        <v>4.795128938858424</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C59">
-        <v>4.795128926752001</v>
+        <v>4.795128934025917</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C60">
-        <v>4.795128926593096</v>
+        <v>4.795128931058967</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C61">
-        <v>4.795128926495535</v>
+        <v>4.795128929237388</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>4.795128926435638</v>
+        <v>4.795128928119016</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>4.795128926398863</v>
+        <v>4.795128927432384</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>4.795128926376284</v>
+        <v>4.795128927010822</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C65">
-        <v>4.795128926362422</v>
+        <v>4.795128926752001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C66">
-        <v>4.795128926353912</v>
+        <v>4.795128926593096</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C67">
-        <v>4.795128926348687</v>
+        <v>4.795128926495535</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C68">
-        <v>4.795128926345479</v>
+        <v>4.795128926435638</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C69">
-        <v>4.795128926343509</v>
+        <v>4.795128926398863</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C70">
-        <v>4.7951289263423</v>
+        <v>4.795128926376284</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C71">
-        <v>4.795128926341557</v>
+        <v>4.795128926362422</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>4.795128926341102</v>
+        <v>4.795128926353912</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C73">
-        <v>4.795128926340822</v>
+        <v>4.795128926348687</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>4.79512892634065</v>
+        <v>4.795128926345479</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C75">
-        <v>4.795128926340544</v>
+        <v>4.795128926343509</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C76">
-        <v>4.795128926340479</v>
+        <v>4.7951289263423</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C77">
-        <v>4.795128926340439</v>
+        <v>4.795128926341557</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C78">
-        <v>4.795128926340415</v>
+        <v>4.795128926341102</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C79">
-        <v>4.7951289263404</v>
+        <v>4.795128926340822</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C80">
-        <v>4.795128926340391</v>
+        <v>4.79512892634065</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C81">
-        <v>4.795128926340386</v>
+        <v>4.795128926340544</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C82">
-        <v>4.795128926340382</v>
+        <v>4.795128926340479</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C83">
-        <v>4.79512892634038</v>
+        <v>4.795128926340439</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C84">
-        <v>4.795128926340379</v>
+        <v>4.795128926340415</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C85">
-        <v>4.795128926340378</v>
+        <v>4.7951289263404</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C86">
-        <v>4.795128926340377</v>
+        <v>4.795128926340391</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C87">
-        <v>4.795128926340377</v>
+        <v>4.795128926340386</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>70</v>
+      </c>
+      <c r="C88">
+        <v>4.795128926340382</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1358,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C89">
-        <v>-349.7666666666667</v>
+        <v>4.79512892634038</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1369,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>10574990.31810476</v>
+        <v>4.795128926340379</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1380,10 +1342,10 @@
         <v>10</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C91">
-        <v>-2.956515146256164E+20</v>
+        <v>4.795128926340378</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1391,10 +1353,10 @@
         <v>10</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C92">
-        <v>6.460711278634775E+60</v>
+        <v>4.795128926340377</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1402,10 +1364,10 @@
         <v>10</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>-6.74187985478655E+181</v>
+        <v>4.795128926340377</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1426,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>-0.875</v>
+        <v>-349.7666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1437,657 +1399,741 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>6.732421875</v>
+        <v>10574990.31810476</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>-469.7200120016932</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>102754555.1873851</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>-1.084933870531746E+24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="C101">
-        <v>1.277055591444378E+72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>-2.082712908581025E+216</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>-0.875</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>0.8164965809277257</v>
+        <v>6.732421875</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>2.996908805787222</v>
+        <v>-469.7200120016932</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>102754555.1873851</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>1.286953767623375</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>1.402540803539578</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>1.345458374023294</v>
+        <v>0.8164965809277257</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>1.375170252816038</v>
+        <v>2.996908805787222</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="C111">
-        <v>1.360094192761733</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112">
-        <v>6</v>
-      </c>
-      <c r="C112">
-        <v>1.367846967592133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>1.363887003884021</v>
+        <v>1.286953767623375</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>1.36591673339004</v>
+        <v>1.402540803539578</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>1.364878217193677</v>
+        <v>1.345458374023294</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>1.365410061169957</v>
+        <v>1.375170252816038</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>1.365137820669213</v>
+        <v>1.360094192761733</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>1.365277208524479</v>
+        <v>1.367846967592133</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>1.365205850297047</v>
+        <v>1.363887003884021</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>1.365242383718839</v>
+        <v>1.36591673339004</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>1.365223680225282</v>
+        <v>1.364878217193677</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>1.3652332557425</v>
+        <v>1.365410061169957</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>1.365228353462627</v>
+        <v>1.365137820669213</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>1.365230863243637</v>
+        <v>1.365277208524479</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>1.365229578333959</v>
+        <v>1.365205850297047</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>1.365230236158181</v>
+        <v>1.365242383718839</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127">
         <v>15</v>
       </c>
-      <c r="B127">
-        <v>21</v>
-      </c>
       <c r="C127">
-        <v>1.365229899377733</v>
+        <v>1.365223680225282</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>1.365230071796291</v>
+        <v>1.3652332557425</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>1.365229983524674</v>
+        <v>1.365228353462627</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B130">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>1.365230028716323</v>
+        <v>1.365230863243637</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B131">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>1.36523000557995</v>
+        <v>1.365229578333959</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B132">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>1.365230017424877</v>
+        <v>1.365230236158181</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B133">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>1.365230011360733</v>
+        <v>1.365229899377733</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+      <c r="C134">
+        <v>1.365230071796291</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>1.348399724926484</v>
+        <v>1.365229983524674</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C136">
-        <v>1.367376371991283</v>
+        <v>1.365230028716323</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C137">
-        <v>1.364957015402487</v>
+        <v>1.36523000557995</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C138">
-        <v>1.365264748113442</v>
+        <v>1.365230017424877</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C139">
-        <v>1.365225594160525</v>
+        <v>1.365230011360733</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>17</v>
-      </c>
-      <c r="B140">
-        <v>6</v>
-      </c>
-      <c r="C140">
-        <v>1.365230575673434</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141">
-        <v>7</v>
-      </c>
-      <c r="C141">
-        <v>1.365229941878183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>1.365230022515568</v>
+        <v>1.348399724926484</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C143">
-        <v>1.365230012256122</v>
+        <v>1.367376371991283</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>1.365230013561425</v>
+        <v>1.364957015402487</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>1.365264748113442</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>1.365225594160525</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>1.365230575673434</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>-0.8125</v>
+        <v>1.365229941878183</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>-2.7681884765625</v>
+        <v>1.365230022515568</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C150">
-        <v>-13.10613067487157</v>
+        <v>1.365230012256122</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C151">
-        <v>-1128.124366335952</v>
+        <v>1.365230013561425</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>21</v>
-      </c>
-      <c r="B152">
-        <v>5</v>
-      </c>
-      <c r="C152">
-        <v>-717861967.2751065</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153">
-        <v>6</v>
-      </c>
-      <c r="C153">
-        <v>-1.849663977450998E+26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154">
-        <v>7</v>
-      </c>
-      <c r="C154">
-        <v>-3.16408775754854E+78</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155">
-        <v>8</v>
-      </c>
-      <c r="C155">
-        <v>-1.58385553060886E+235</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>20</v>
+        <v>1.259921049894873</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158">
-        <v>0.01256281407035176</v>
+        <v>1.95915850484822</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>-2.500197295940755</v>
+        <v>2.073771819545328</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>2.091389050821687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>2.094070811173149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>2.094478436766776</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>2.094540381666437</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>2.094549794814013</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>2.094551225228608</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>2.094551442593128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167">
         <v>11</v>
+      </c>
+      <c r="C167">
+        <v>2.094551475623642</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168">
+        <v>12</v>
+      </c>
+      <c r="C168">
+        <v>2.094551480642929</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>-0.8125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>-2.7681884765625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>-13.10613067487157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>-1128.124366335952</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
